--- a/Python/实验数据.xlsx
+++ b/Python/实验数据.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\Project\TsMon\Code\TsMon\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57F76C9-9C9D-42B5-A7BD-8B7A89C9BF04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54AE070A-5000-40A4-9814-0DD5AB07F943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="测量精度" sheetId="1" r:id="rId1"/>
+    <sheet name="吞吐量" sheetId="2" r:id="rId2"/>
+    <sheet name="检测精度" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,12 +31,15 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="132">
   <si>
     <t>TsMon</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -501,15 +505,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>interval = 1_000_000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>interval = 200_000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>interval = 10_000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interval = 2_000_000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cache_trace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sketch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Queue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4+4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enegry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10KB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40KB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NB15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70KB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1KB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4KB</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -846,10 +902,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U42"/>
+  <dimension ref="A1:W91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="AB28" sqref="AB28"/>
+    <sheetView topLeftCell="A55" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1156,7 +1212,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
@@ -1211,27 +1267,27 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="O27" s="3" t="s">
         <v>17</v>
       </c>
@@ -1240,9 +1296,9 @@
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P28" t="s">
         <v>14</v>
@@ -1256,8 +1312,14 @@
       <c r="S28" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="29" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="V28" t="s">
+        <v>121</v>
+      </c>
+      <c r="W28" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>114</v>
       </c>
@@ -1270,17 +1332,24 @@
       <c r="P29">
         <v>3</v>
       </c>
-      <c r="Q29" s="2">
-        <v>15291</v>
-      </c>
+      <c r="Q29" s="2"/>
       <c r="R29">
         <v>1024</v>
       </c>
       <c r="S29">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="U29" t="s">
+        <v>120</v>
+      </c>
+      <c r="V29" t="s">
+        <v>123</v>
+      </c>
+      <c r="W29" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>0</v>
       </c>
@@ -1305,11 +1374,9 @@
       <c r="P30">
         <v>3</v>
       </c>
-      <c r="Q30" s="2">
-        <v>11137</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="Q30" s="2"/>
+    </row>
+    <row r="31" spans="1:23" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -1338,10 +1405,13 @@
         <v>3</v>
       </c>
       <c r="Q31" s="2">
-        <v>6961</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+        <v>2861</v>
+      </c>
+      <c r="R31">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -1370,7 +1440,10 @@
         <v>3</v>
       </c>
       <c r="Q32">
-        <v>2801</v>
+        <v>1431</v>
+      </c>
+      <c r="R32">
+        <v>1024</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.2">
@@ -1421,7 +1494,7 @@
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.2">
@@ -1504,6 +1577,9 @@
       <c r="I39">
         <v>13.65</v>
       </c>
+      <c r="J39">
+        <v>8.7949999999999999</v>
+      </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
@@ -1565,12 +1641,795 @@
         <v>1.6E-2</v>
       </c>
     </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>119</v>
+      </c>
+      <c r="B45" t="s">
+        <v>12</v>
+      </c>
+      <c r="I45" t="s">
+        <v>11</v>
+      </c>
+      <c r="P45" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I46" t="s">
+        <v>0</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="P46" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="R46" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="S46" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="T46" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="U46" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="I47">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="P47">
+        <v>0.93300000000000005</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="I48">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="P48">
+        <v>0.90300000000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="G54" t="s">
+        <v>121</v>
+      </c>
+      <c r="H54" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" t="s">
+        <v>120</v>
+      </c>
+      <c r="G55" t="s">
+        <v>123</v>
+      </c>
+      <c r="H55" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56" t="s">
+        <v>16</v>
+      </c>
+      <c r="E56" t="s">
+        <v>15</v>
+      </c>
+      <c r="K56" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>125</v>
+      </c>
+      <c r="B57">
+        <v>3</v>
+      </c>
+      <c r="C57">
+        <v>233</v>
+      </c>
+      <c r="D57">
+        <v>128</v>
+      </c>
+      <c r="E57">
+        <v>8</v>
+      </c>
+      <c r="K57">
+        <f t="shared" ref="K57:K62" si="0">B57*C57*8+D57*E57*4+D57*4</f>
+        <v>10200</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>126</v>
+      </c>
+      <c r="B58">
+        <v>3</v>
+      </c>
+      <c r="C58">
+        <v>1251</v>
+      </c>
+      <c r="D58">
+        <v>256</v>
+      </c>
+      <c r="E58">
+        <v>8</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="0"/>
+        <v>39240</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>129</v>
+      </c>
+      <c r="B59">
+        <v>3</v>
+      </c>
+      <c r="C59" s="2">
+        <v>2133</v>
+      </c>
+      <c r="D59">
+        <v>512</v>
+      </c>
+      <c r="E59">
+        <v>8</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="0"/>
+        <v>69624</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60">
+        <v>3</v>
+      </c>
+      <c r="C60">
+        <v>2671</v>
+      </c>
+      <c r="D60">
+        <v>1024</v>
+      </c>
+      <c r="E60">
+        <v>8</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="0"/>
+        <v>100968</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>131</v>
+      </c>
+      <c r="B61">
+        <v>3</v>
+      </c>
+      <c r="C61">
+        <v>47</v>
+      </c>
+      <c r="D61">
+        <v>64</v>
+      </c>
+      <c r="E61">
+        <v>8</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="0"/>
+        <v>3432</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>130</v>
+      </c>
+      <c r="B62">
+        <v>3</v>
+      </c>
+      <c r="C62">
+        <v>13</v>
+      </c>
+      <c r="D62">
+        <v>20</v>
+      </c>
+      <c r="E62">
+        <v>8</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="0"/>
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>127</v>
+      </c>
+      <c r="B64" t="s">
+        <v>12</v>
+      </c>
+      <c r="I64" t="s">
+        <v>124</v>
+      </c>
+      <c r="P64" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
+        <v>0</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I65" t="s">
+        <v>0</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M65" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="N65" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="P65" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="R65" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="S65" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="T65" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="U65" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>125</v>
+      </c>
+      <c r="B66">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="C66">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="D66">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="E66">
+        <v>0.98</v>
+      </c>
+      <c r="F66">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="G66">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="I66">
+        <v>0.314</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0.01</v>
+      </c>
+      <c r="L66">
+        <v>1.2E-2</v>
+      </c>
+      <c r="M66">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="N66">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="P66">
+        <v>12.832000000000001</v>
+      </c>
+      <c r="Q66">
+        <v>342.91</v>
+      </c>
+      <c r="R66">
+        <v>53.19</v>
+      </c>
+      <c r="S66">
+        <v>71.709999999999994</v>
+      </c>
+      <c r="T66">
+        <v>51.758000000000003</v>
+      </c>
+      <c r="U66">
+        <v>113.94</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>126</v>
+      </c>
+      <c r="B67">
+        <v>0.95</v>
+      </c>
+      <c r="I67">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="P67">
+        <v>16.068000000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>129</v>
+      </c>
+      <c r="B68" s="2">
+        <v>0.94699999999999995</v>
+      </c>
+      <c r="I68">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="P68">
+        <v>15.199</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>6</v>
+      </c>
+      <c r="B69">
+        <v>0.94699999999999995</v>
+      </c>
+      <c r="C69">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="D69">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="E69">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="F69">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="G69">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="I69">
+        <v>0.36</v>
+      </c>
+      <c r="J69">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="K69">
+        <v>0.189</v>
+      </c>
+      <c r="L69">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="M69">
+        <v>0.217</v>
+      </c>
+      <c r="N69">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="P69">
+        <v>15.391999999999999</v>
+      </c>
+      <c r="Q69">
+        <v>19.132000000000001</v>
+      </c>
+      <c r="R69">
+        <v>3.2120000000000002</v>
+      </c>
+      <c r="S69">
+        <v>4.3949999999999996</v>
+      </c>
+      <c r="T69">
+        <v>3.2610000000000001</v>
+      </c>
+      <c r="U69">
+        <v>5.694</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>114</v>
+      </c>
+      <c r="B72" t="s">
+        <v>12</v>
+      </c>
+      <c r="I72" t="s">
+        <v>124</v>
+      </c>
+      <c r="P72" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
+        <v>0</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I73" t="s">
+        <v>0</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M73" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="N73" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="P73" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="R73" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="S73" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="T73" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="U73" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>129</v>
+      </c>
+      <c r="B76" s="2"/>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>127</v>
+      </c>
+      <c r="B80" t="s">
+        <v>12</v>
+      </c>
+      <c r="I80" t="s">
+        <v>124</v>
+      </c>
+      <c r="P80" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B81" t="s">
+        <v>0</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I81" t="s">
+        <v>0</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L81" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M81" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="N81" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="P81" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="R81" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="S81" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="T81" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="U81" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>130</v>
+      </c>
+      <c r="B82">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="C82">
+        <v>0.93</v>
+      </c>
+      <c r="D82">
+        <v>0.91</v>
+      </c>
+      <c r="E82">
+        <v>0.9</v>
+      </c>
+      <c r="F82">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="G82">
+        <v>0.92</v>
+      </c>
+      <c r="I82">
+        <v>0.51</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0.2</v>
+      </c>
+      <c r="L82">
+        <v>0.16</v>
+      </c>
+      <c r="M82">
+        <v>0.17</v>
+      </c>
+      <c r="N82">
+        <v>0.1</v>
+      </c>
+      <c r="P82">
+        <v>2.8940000000000001</v>
+      </c>
+      <c r="Q82">
+        <v>96</v>
+      </c>
+      <c r="R82">
+        <v>2.891</v>
+      </c>
+      <c r="S82">
+        <v>3.85</v>
+      </c>
+      <c r="T82">
+        <v>3.96</v>
+      </c>
+      <c r="U82">
+        <v>7.83</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>125</v>
+      </c>
+      <c r="B88">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="I88">
+        <v>0.63</v>
+      </c>
+      <c r="P88">
+        <v>2.5579999999999998</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>129</v>
+      </c>
+      <c r="B90" s="2"/>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>6</v>
+      </c>
+      <c r="B91">
+        <v>0.78</v>
+      </c>
+      <c r="I91">
+        <v>0.67</v>
+      </c>
+      <c r="P91">
+        <v>2.4900000000000002</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="O1:S1"/>
     <mergeCell ref="F1:J1"/>
     <mergeCell ref="O27:S27"/>
+    <mergeCell ref="A55:E55"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1582,7 +2441,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{822C3995-A192-445C-BB7B-47BB3C2A8045}">
   <dimension ref="A1:L71"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N52" sqref="N52"/>
     </sheetView>
   </sheetViews>
@@ -2318,4 +3177,20 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{629E4B4B-5DD1-41A4-9CD5-05F23BC7E46A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R56" sqref="R56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>